--- a/报销通道/报销记录.xlsx
+++ b/报销通道/报销记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,23 +89,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>试验手套、油漆笔、口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油漆笔、香烟、涂改液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有小票无发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未报销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试验手套、油漆笔、口罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62.4元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E14:E15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -486,7 +507,7 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>3.29</v>
       </c>
     </row>
@@ -509,7 +530,7 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>4.2</v>
       </c>
     </row>
@@ -524,13 +545,16 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -541,13 +565,39 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/报销通道/报销记录.xlsx
+++ b/报销通道/报销记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,19 +113,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>有小票无发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭@湖州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递 湖州到上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过路费+邮费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.22</t>
+  </si>
+  <si>
+    <t>2018.12.23</t>
+  </si>
+  <si>
+    <t>打的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票1月份待开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>油漆笔、香烟、涂改液</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>102元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有小票无发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未报销</t>
+    <t>焊接加工费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来回宝冶打车110+115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有打车票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +196,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -166,15 +224,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -588,20 +649,157 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D7">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
+      </c>
+      <c r="D8">
+        <v>410</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>485</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>225</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/报销通道/报销记录.xlsx
+++ b/报销通道/报销记录.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,73 +86,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>试验手套、油漆笔、口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭@湖州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递 湖州到上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过路费+邮费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.22</t>
+  </si>
+  <si>
+    <t>2018.12.23</t>
+  </si>
+  <si>
+    <t>打的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油漆笔、香烟、涂改液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接加工费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来回宝冶打车110+115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货拉拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票待开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>有发票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>试验手套、油漆笔、口罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62.4元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有小票无发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未报销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭@湖州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递 湖州到上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过路费+邮费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.22</t>
-  </si>
-  <si>
-    <t>2018.12.23</t>
-  </si>
-  <si>
-    <t>打的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票1月份待开</t>
+    <t>吉佳快运发票运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,23 +204,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油漆笔、香烟、涂改液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焊接加工费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来回宝冶打车110+115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有打车票</t>
+    <t>2019.1.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油漆笔、涂改液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补助金合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南校区试验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +232,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +258,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,15 +297,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -513,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -606,16 +701,16 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -626,19 +721,19 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -646,19 +741,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -666,19 +761,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -686,19 +781,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>410</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -706,10 +801,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -718,7 +813,7 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -726,19 +821,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>485</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -746,16 +841,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -763,16 +858,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>10000</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -780,10 +875,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>225</v>
@@ -792,7 +887,137 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>171.3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>43.8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>53.7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -802,4 +1027,217 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="25.5">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3">
+        <v>102</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="25.5">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3">
+        <v>102</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="25.5">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="25.5">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3">
+        <v>53.7</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="25.5">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>485</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="25.5">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="25.5">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>700</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.5">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3">
+        <f>SUM(C2:C9)</f>
+        <v>4452.7</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="25.5">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9300</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="25.5">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
+        <v>410</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.5">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>225</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3">
+        <v>171.3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6">
+        <f>SUM(C11:C15)</f>
+        <v>10136.299999999999</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/报销通道/报销记录.xlsx
+++ b/报销通道/报销记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过路费+邮费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工人工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +221,65 @@
   </si>
   <si>
     <t>南校区试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过路费+汽油费</t>
+  </si>
+  <si>
+    <t>过路费+汽油费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来回宝冶110+115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试件快递 湖州到上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费湖州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油漆笔、涂改液、砂纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,30 +321,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="20"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -312,21 +379,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -610,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -704,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -744,13 +826,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -761,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -770,7 +852,7 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -781,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -790,7 +872,7 @@
         <v>410</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -801,16 +883,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -821,16 +903,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>485</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -841,10 +923,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>2000</v>
@@ -858,10 +940,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -875,16 +957,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
       <c r="D13">
         <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -895,16 +977,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
       </c>
       <c r="D14">
         <v>171.3</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -915,7 +997,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -924,7 +1006,7 @@
         <v>43.8</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -935,16 +1017,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -955,16 +1037,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
       </c>
       <c r="D17">
         <v>53.7</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -973,6 +1055,21 @@
     <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <v>6855</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1031,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1044,198 +1141,261 @@
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="25.5">
+    <row r="1" spans="1:5" ht="31.5">
+      <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>102</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="25.5">
+    <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="3">
         <v>102</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="25.5">
+    <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="25.5">
+    <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3">
-        <v>53.7</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="25.5">
+    <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3">
         <v>485</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="25.5">
+    <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>2000</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="25.5">
+    <row r="8" spans="1:5" ht="25.5">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>700</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="25.5">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:5" ht="25.5">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="25.5">
-      <c r="A10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:5" ht="25.5">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C10" s="3">
-        <f>SUM(C2:C9)</f>
-        <v>4452.7</v>
+        <v>410</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="25.5">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9300</v>
+    <row r="11" spans="1:5" ht="25.5">
+      <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4">
+        <f>SUM(C2:C10)</f>
+        <v>4063</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="25.5">
+    <row r="12" spans="1:5" ht="25.5">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
-        <v>410</v>
+        <v>9300</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5">
+      <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6855</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5">
+        <f>SUM(C12:C13)</f>
+        <v>16155</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="25.5">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3">
+        <v>225</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="25.5">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" ht="25.5">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3">
-        <v>225</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5">
-      <c r="A15" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="C18" s="3">
         <v>171.3</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6">
-        <f>SUM(C11:C15)</f>
-        <v>10136.299999999999</v>
-      </c>
-      <c r="D16" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="25.5">
+      <c r="A19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5">
+        <f>SUM(C15:C18)</f>
+        <v>470.1</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
+  <mergeCells count="4">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="饭@湖州"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/报销通道/报销记录.xlsx
+++ b/报销通道/报销记录.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF596F1-0BA0-46B0-9E7F-DC145B9A6FE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,187 +111,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>饭@湖州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递 湖州到上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.22</t>
+  </si>
+  <si>
+    <t>2018.12.23</t>
+  </si>
+  <si>
+    <t>打的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油漆笔、香烟、涂改液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接加工费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来回宝冶打车110+115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货拉拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票待开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉佳快运发票运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油漆笔、涂改液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补助金合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南校区试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过路费+汽油费</t>
+  </si>
+  <si>
+    <t>过路费+汽油费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来回宝冶110+115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试件快递 湖州到上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费湖州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油漆笔、涂改液、砂纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验南校区师傅打点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.3.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材运费（湖州到昆山）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未报销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭@湖州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递 湖州到上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.22</t>
-  </si>
-  <si>
-    <t>2018.12.23</t>
-  </si>
-  <si>
-    <t>打的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油漆笔、香烟、涂改液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焊接加工费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来回宝冶打车110+115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货拉拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票待开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉佳快运发票运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油漆笔、涂改液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香烟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补助金合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南校区试验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过路费+汽油费</t>
-  </si>
-  <si>
-    <t>过路费+汽油费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票快递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来回宝冶110+115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试件快递 湖州到上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费湖州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油漆笔、涂改液、砂纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.1.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +350,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -338,6 +365,7 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -393,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -409,6 +437,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -689,21 +718,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -749,7 +778,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -772,7 +801,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -786,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -795,7 +824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -818,7 +847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -826,178 +855,178 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>410</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>485</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>10000</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
       </c>
       <c r="D13">
         <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
       </c>
       <c r="D14">
         <v>171.3</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1006,113 +1035,143 @@
         <v>43.8</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
       <c r="D17">
-        <v>53.7</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
       </c>
       <c r="D18">
         <v>6855</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>300</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1120,145 +1179,145 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3">
         <v>102</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3">
         <v>102</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="25.5">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3">
         <v>54</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="25.5">
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3">
         <v>485</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="25.5">
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3">
         <v>2000</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="25.5">
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3">
         <v>700</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="25.5">
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3">
         <v>200</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="25.5">
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3">
         <v>410</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="25.5">
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4">
@@ -1267,43 +1326,43 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="25.5">
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
         <v>9300</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25.5">
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C13" s="3">
         <v>6855</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.5">
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="5">
@@ -1312,37 +1371,37 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3">
         <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3">
         <v>225</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="25.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -1351,7 +1410,7 @@
         <v>43.8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -1361,23 +1420,23 @@
       <c r="J17"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" ht="25.5">
+    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="3">
         <v>171.3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="25.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="5">
@@ -1385,6 +1444,12 @@
         <v>470.1</v>
       </c>
       <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="9">
+        <f>C19+C14+C11</f>
+        <v>20688.099999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1395,7 +1460,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="饭@湖州"/>
+    <hyperlink ref="B3" r:id="rId1" display="饭@湖州" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/报销通道/报销记录.xlsx
+++ b/报销通道/报销记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF596F1-0BA0-46B0-9E7F-DC145B9A6FE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4917EA55-3EF5-4779-83CD-DDC2AA2BEF08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,11 +300,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钢材运费（湖州到昆山）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.3.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊丝运费（宝冶刘工to昆山李工）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材运费（湖州边工to昆山李工）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,6 +436,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,7 +446,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -722,13 +730,13 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1129,7 +1137,7 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <v>300</v>
@@ -1138,12 +1146,27 @@
         <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1182,6 +1205,7 @@
     <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1201,11 +1225,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1316,10 +1340,10 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4">
         <f>SUM(C2:C10)</f>
         <v>4063</v>
@@ -1361,10 +1385,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="5">
         <f>SUM(C12:C13)</f>
         <v>16155</v>
@@ -1435,10 +1459,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="5">
         <f>SUM(C15:C18)</f>
         <v>470.1</v>
@@ -1446,7 +1470,7 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <f>C19+C14+C11</f>
         <v>20688.099999999999</v>
       </c>

--- a/报销通道/报销记录.xlsx
+++ b/报销通道/报销记录.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4917EA55-3EF5-4779-83CD-DDC2AA2BEF08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC25DB7-07A5-4475-833A-588CD2DC466F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +318,54 @@
   </si>
   <si>
     <t>钢材运费（湖州边工to昆山李工）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去加工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货拉拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机加工——顾师傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1129,74 +1182,238 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20">
-        <v>300</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22">
+        <v>300</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <v>129.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f>SUM(D22:D32)</f>
+        <v>1347.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35">
+        <v>1860</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
